--- a/NformTester/NformTester/keywordscripts/TST710_CheckSelectingNinthDeviceParameters.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST710_CheckSelectingNinthDeviceParameters.xlsx
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="820">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3728,10 +3728,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4287,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4301,6 +4307,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4469,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4513,10 +4520,10 @@
         <v>69</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>817</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>72</v>
@@ -4532,9 +4539,9 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>819</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4555,11 +4562,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4585,8 +4590,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4612,10 +4621,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4632,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4644,7 +4651,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4673,7 +4680,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4702,7 +4709,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4731,7 +4738,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4760,7 +4767,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4788,10 +4795,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4819,7 +4826,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4844,11 +4851,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4870,9 +4875,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4899,7 +4906,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -4921,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -4931,6 +4938,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
